--- a/pred_ohlcv/54_21/2019-10-29 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 HYC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>2338793.580572519</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>608764.588572519</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>479545.216472519</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>729545.2164725191</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>729545.2164725191</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>626851.8510725191</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2077909.873972519</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2077931.873972519</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2077920.873972519</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2047762.964272519</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2019867.964372519</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2019857.964372519</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1998243.442372519</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1998243.442372519</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2032981.487372519</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1851533.155672519</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1730316.594572519</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-282832.1503910549</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 HYC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>2340063.603872519</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2338793.580572519</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2338811.580572519</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>608764.588572519</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>479545.216472519</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>729545.2164725191</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>606850.8510725191</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>646868.8510725191</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>725468.8510725191</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2077909.873972519</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2077931.873972519</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2077920.873972519</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2047762.964272519</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2019867.964372519</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2019857.964372519</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1998243.442372519</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1998243.442372519</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2032981.487372519</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1851533.155672519</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1730316.594572519</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
